--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tgfb1-Eng.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tgfb1-Eng.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>96.320746</v>
+        <v>54.53585066666667</v>
       </c>
       <c r="H2">
-        <v>288.962238</v>
+        <v>163.607552</v>
       </c>
       <c r="I2">
-        <v>0.3809824610908789</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="J2">
-        <v>0.3809824610908788</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>150.1098686666667</v>
+        <v>247.0944516666667</v>
       </c>
       <c r="N2">
-        <v>450.329606</v>
+        <v>741.283355</v>
       </c>
       <c r="O2">
-        <v>0.7276622610660995</v>
+        <v>0.8050739182622993</v>
       </c>
       <c r="P2">
-        <v>0.7276622610660997</v>
+        <v>0.8050739182622993</v>
       </c>
       <c r="Q2">
-        <v>14458.69453193536</v>
+        <v>13475.50611665522</v>
       </c>
       <c r="R2">
-        <v>130128.2507874182</v>
+        <v>121279.555049897</v>
       </c>
       <c r="S2">
-        <v>0.2772265590639162</v>
+        <v>0.2440491945024259</v>
       </c>
       <c r="T2">
-        <v>0.2772265590639162</v>
+        <v>0.2440491945024259</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>96.320746</v>
+        <v>54.53585066666667</v>
       </c>
       <c r="H3">
-        <v>288.962238</v>
+        <v>163.607552</v>
       </c>
       <c r="I3">
-        <v>0.3809824610908789</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="J3">
-        <v>0.3809824610908788</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>126.9743</v>
       </c>
       <c r="O3">
-        <v>0.2051706239258123</v>
+        <v>0.1379009747488701</v>
       </c>
       <c r="P3">
-        <v>0.2051706239258124</v>
+        <v>0.13790097474887</v>
       </c>
       <c r="Q3">
-        <v>4076.753099609267</v>
+        <v>2308.217154434845</v>
       </c>
       <c r="R3">
-        <v>36690.7778964834</v>
+        <v>20773.9543899136</v>
       </c>
       <c r="S3">
-        <v>0.07816640924680714</v>
+        <v>0.04180314508412154</v>
       </c>
       <c r="T3">
-        <v>0.07816640924680714</v>
+        <v>0.04180314508412154</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>96.320746</v>
+        <v>54.53585066666667</v>
       </c>
       <c r="H4">
-        <v>288.962238</v>
+        <v>163.607552</v>
       </c>
       <c r="I4">
-        <v>0.3809824610908789</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="J4">
-        <v>0.3809824610908788</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.915377333333334</v>
+        <v>11.590146</v>
       </c>
       <c r="N4">
-        <v>26.746132</v>
+        <v>34.770438</v>
       </c>
       <c r="O4">
-        <v>0.04321756914621411</v>
+        <v>0.03776258103132013</v>
       </c>
       <c r="P4">
-        <v>0.04321756914621412</v>
+        <v>0.03776258103132013</v>
       </c>
       <c r="Q4">
-        <v>858.7357956181573</v>
+        <v>632.078471460864</v>
       </c>
       <c r="R4">
-        <v>7728.622160563416</v>
+        <v>5688.706243147776</v>
       </c>
       <c r="S4">
-        <v>0.01646513585568989</v>
+        <v>0.01144730598516749</v>
       </c>
       <c r="T4">
-        <v>0.01646513585568989</v>
+        <v>0.0114473059851675</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>96.320746</v>
+        <v>54.53585066666667</v>
       </c>
       <c r="H5">
-        <v>288.962238</v>
+        <v>163.607552</v>
       </c>
       <c r="I5">
-        <v>0.3809824610908789</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="J5">
-        <v>0.3809824610908788</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.940565666666667</v>
+        <v>5.912082333333333</v>
       </c>
       <c r="N5">
-        <v>14.821697</v>
+        <v>17.736247</v>
       </c>
       <c r="O5">
-        <v>0.02394954586187395</v>
+        <v>0.01926252595751047</v>
       </c>
       <c r="P5">
-        <v>0.02394954586187395</v>
+        <v>0.01926252595751047</v>
       </c>
       <c r="Q5">
-        <v>475.8789706753207</v>
+        <v>322.4204392597049</v>
       </c>
       <c r="R5">
-        <v>4282.910736077886</v>
+        <v>2901.783953337344</v>
       </c>
       <c r="S5">
-        <v>0.00912435692446561</v>
+        <v>0.005839220272045724</v>
       </c>
       <c r="T5">
-        <v>0.00912435692446561</v>
+        <v>0.005839220272045725</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>55.394026</v>
       </c>
       <c r="I6">
-        <v>0.07303429161291355</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="J6">
-        <v>0.07303429161291354</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>150.1098686666667</v>
+        <v>247.0944516666667</v>
       </c>
       <c r="N6">
-        <v>450.329606</v>
+        <v>741.283355</v>
       </c>
       <c r="O6">
-        <v>0.7276622610660995</v>
+        <v>0.8050739182622993</v>
       </c>
       <c r="P6">
-        <v>0.7276622610660997</v>
+        <v>0.8050739182622993</v>
       </c>
       <c r="Q6">
-        <v>2771.729989259306</v>
+        <v>4562.518826693025</v>
       </c>
       <c r="R6">
-        <v>24945.56990333376</v>
+        <v>41062.66944023723</v>
       </c>
       <c r="S6">
-        <v>0.05314429777041355</v>
+        <v>0.08262984966333606</v>
       </c>
       <c r="T6">
-        <v>0.05314429777041355</v>
+        <v>0.08262984966333607</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>55.394026</v>
       </c>
       <c r="I7">
-        <v>0.07303429161291355</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="J7">
-        <v>0.07303429161291354</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>126.9743</v>
       </c>
       <c r="O7">
-        <v>0.2051706239258123</v>
+        <v>0.1379009747488701</v>
       </c>
       <c r="P7">
-        <v>0.2051706239258124</v>
+        <v>0.13790097474887</v>
       </c>
       <c r="Q7">
         <v>781.5130750590889</v>
@@ -883,10 +883,10 @@
         <v>7033.617675531799</v>
       </c>
       <c r="S7">
-        <v>0.0149844911782012</v>
+        <v>0.01415365291738856</v>
       </c>
       <c r="T7">
-        <v>0.0149844911782012</v>
+        <v>0.01415365291738856</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>55.394026</v>
       </c>
       <c r="I8">
-        <v>0.07303429161291355</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="J8">
-        <v>0.07303429161291354</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.915377333333334</v>
+        <v>11.590146</v>
       </c>
       <c r="N8">
-        <v>26.746132</v>
+        <v>34.770438</v>
       </c>
       <c r="O8">
-        <v>0.04321756914621411</v>
+        <v>0.03776258103132013</v>
       </c>
       <c r="P8">
-        <v>0.04321756914621412</v>
+        <v>0.03776258103132013</v>
       </c>
       <c r="Q8">
-        <v>164.6195479341591</v>
+        <v>214.008282955932</v>
       </c>
       <c r="R8">
-        <v>1481.575931407432</v>
+        <v>1926.074546603388</v>
       </c>
       <c r="S8">
-        <v>0.003156364547825857</v>
+        <v>0.003875813540516295</v>
       </c>
       <c r="T8">
-        <v>0.003156364547825857</v>
+        <v>0.003875813540516295</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>55.394026</v>
       </c>
       <c r="I9">
-        <v>0.07303429161291355</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="J9">
-        <v>0.07303429161291354</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.940565666666667</v>
+        <v>5.912082333333333</v>
       </c>
       <c r="N9">
-        <v>14.821697</v>
+        <v>17.736247</v>
       </c>
       <c r="O9">
-        <v>0.02394954586187395</v>
+        <v>0.01926252595751047</v>
       </c>
       <c r="P9">
-        <v>0.02394954586187395</v>
+        <v>0.01926252595751047</v>
       </c>
       <c r="Q9">
-        <v>91.22594099801356</v>
+        <v>109.1646808289358</v>
       </c>
       <c r="R9">
-        <v>821.0334689821219</v>
+        <v>982.4821274604219</v>
       </c>
       <c r="S9">
-        <v>0.001749138116472949</v>
+        <v>0.001977035385074571</v>
       </c>
       <c r="T9">
-        <v>0.001749138116472949</v>
+        <v>0.001977035385074571</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>15.127183</v>
+        <v>12.55635966666667</v>
       </c>
       <c r="H10">
-        <v>45.38154900000001</v>
+        <v>37.669079</v>
       </c>
       <c r="I10">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938171</v>
       </c>
       <c r="J10">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938172</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>150.1098686666667</v>
+        <v>247.0944516666667</v>
       </c>
       <c r="N10">
-        <v>450.329606</v>
+        <v>741.283355</v>
       </c>
       <c r="O10">
-        <v>0.7276622610660995</v>
+        <v>0.8050739182622993</v>
       </c>
       <c r="P10">
-        <v>0.7276622610660997</v>
+        <v>0.8050739182622993</v>
       </c>
       <c r="Q10">
-        <v>2270.739453426633</v>
+        <v>3102.606806764449</v>
       </c>
       <c r="R10">
-        <v>20436.6550808397</v>
+        <v>27923.46126088004</v>
       </c>
       <c r="S10">
-        <v>0.04353845942410132</v>
+        <v>0.05619000024887754</v>
       </c>
       <c r="T10">
-        <v>0.04353845942410133</v>
+        <v>0.05619000024887755</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>15.127183</v>
+        <v>12.55635966666667</v>
       </c>
       <c r="H11">
-        <v>45.38154900000001</v>
+        <v>37.669079</v>
       </c>
       <c r="I11">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938171</v>
       </c>
       <c r="J11">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938172</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>126.9743</v>
       </c>
       <c r="O11">
-        <v>0.2051706239258123</v>
+        <v>0.1379009747488701</v>
       </c>
       <c r="P11">
-        <v>0.2051706239258124</v>
+        <v>0.13790097474887</v>
       </c>
       <c r="Q11">
-        <v>640.2544907989668</v>
+        <v>531.4449930744111</v>
       </c>
       <c r="R11">
-        <v>5762.290417190701</v>
+        <v>4783.0049376697</v>
       </c>
       <c r="S11">
-        <v>0.0122760425581561</v>
+        <v>0.009624775600959031</v>
       </c>
       <c r="T11">
-        <v>0.0122760425581561</v>
+        <v>0.009624775600959031</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>15.127183</v>
+        <v>12.55635966666667</v>
       </c>
       <c r="H12">
-        <v>45.38154900000001</v>
+        <v>37.669079</v>
       </c>
       <c r="I12">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938171</v>
       </c>
       <c r="J12">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938172</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.915377333333334</v>
+        <v>11.590146</v>
       </c>
       <c r="N12">
-        <v>26.746132</v>
+        <v>34.770438</v>
       </c>
       <c r="O12">
-        <v>0.04321756914621411</v>
+        <v>0.03776258103132013</v>
       </c>
       <c r="P12">
-        <v>0.04321756914621412</v>
+        <v>0.03776258103132013</v>
       </c>
       <c r="Q12">
-        <v>134.8645444353854</v>
+        <v>145.530041765178</v>
       </c>
       <c r="R12">
-        <v>1213.780899918468</v>
+        <v>1309.770375886602</v>
       </c>
       <c r="S12">
-        <v>0.002585851268312254</v>
+        <v>0.00263563306351804</v>
       </c>
       <c r="T12">
-        <v>0.002585851268312255</v>
+        <v>0.002635633063518041</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>15.127183</v>
+        <v>12.55635966666667</v>
       </c>
       <c r="H13">
-        <v>45.38154900000001</v>
+        <v>37.669079</v>
       </c>
       <c r="I13">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938171</v>
       </c>
       <c r="J13">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938172</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.940565666666667</v>
+        <v>5.912082333333333</v>
       </c>
       <c r="N13">
-        <v>14.821697</v>
+        <v>17.736247</v>
       </c>
       <c r="O13">
-        <v>0.02394954586187395</v>
+        <v>0.01926252595751047</v>
       </c>
       <c r="P13">
-        <v>0.02394954586187395</v>
+        <v>0.01926252595751047</v>
       </c>
       <c r="Q13">
-        <v>74.73684096318368</v>
+        <v>74.23423215627922</v>
       </c>
       <c r="R13">
-        <v>672.6315686686531</v>
+        <v>668.1080894065129</v>
       </c>
       <c r="S13">
-        <v>0.001432981187185868</v>
+        <v>0.001344424796027092</v>
       </c>
       <c r="T13">
-        <v>0.001432981187185868</v>
+        <v>0.001344424796027092</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>122.909391</v>
+        <v>94.34696966666667</v>
       </c>
       <c r="H14">
-        <v>368.728173</v>
+        <v>283.040909</v>
       </c>
       <c r="I14">
-        <v>0.4861499128584522</v>
+        <v>0.524429948940542</v>
       </c>
       <c r="J14">
-        <v>0.4861499128584522</v>
+        <v>0.5244299489405421</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>150.1098686666667</v>
+        <v>247.0944516666667</v>
       </c>
       <c r="N14">
-        <v>450.329606</v>
+        <v>741.283355</v>
       </c>
       <c r="O14">
-        <v>0.7276622610660995</v>
+        <v>0.8050739182622993</v>
       </c>
       <c r="P14">
-        <v>0.7276622610660997</v>
+        <v>0.8050739182622993</v>
       </c>
       <c r="Q14">
-        <v>18449.91254090998</v>
+        <v>23312.61273619664</v>
       </c>
       <c r="R14">
-        <v>166049.2128681898</v>
+        <v>209813.5146257697</v>
       </c>
       <c r="S14">
-        <v>0.3537529448076686</v>
+        <v>0.4222048738476597</v>
       </c>
       <c r="T14">
-        <v>0.3537529448076686</v>
+        <v>0.4222048738476598</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>122.909391</v>
+        <v>94.34696966666667</v>
       </c>
       <c r="H15">
-        <v>368.728173</v>
+        <v>283.040909</v>
       </c>
       <c r="I15">
-        <v>0.4861499128584522</v>
+        <v>0.524429948940542</v>
       </c>
       <c r="J15">
-        <v>0.4861499128584522</v>
+        <v>0.5244299489405421</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>126.9743</v>
       </c>
       <c r="O15">
-        <v>0.2051706239258123</v>
+        <v>0.1379009747488701</v>
       </c>
       <c r="P15">
-        <v>0.2051706239258124</v>
+        <v>0.13790097474887</v>
       </c>
       <c r="Q15">
-        <v>5202.1112952171</v>
+        <v>3993.213476848744</v>
       </c>
       <c r="R15">
-        <v>46819.00165695389</v>
+        <v>35938.9212916387</v>
       </c>
       <c r="S15">
-        <v>0.09974368094264795</v>
+        <v>0.0723194011464009</v>
       </c>
       <c r="T15">
-        <v>0.09974368094264795</v>
+        <v>0.0723194011464009</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>122.909391</v>
+        <v>94.34696966666667</v>
       </c>
       <c r="H16">
-        <v>368.728173</v>
+        <v>283.040909</v>
       </c>
       <c r="I16">
-        <v>0.4861499128584522</v>
+        <v>0.524429948940542</v>
       </c>
       <c r="J16">
-        <v>0.4861499128584522</v>
+        <v>0.5244299489405421</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.915377333333334</v>
+        <v>11.590146</v>
       </c>
       <c r="N16">
-        <v>26.746132</v>
+        <v>34.770438</v>
       </c>
       <c r="O16">
-        <v>0.04321756914621411</v>
+        <v>0.03776258103132013</v>
       </c>
       <c r="P16">
-        <v>0.04321756914621412</v>
+        <v>0.03776258103132013</v>
       </c>
       <c r="Q16">
-        <v>1095.783598575204</v>
+        <v>1093.495153094238</v>
       </c>
       <c r="R16">
-        <v>9862.052387176835</v>
+        <v>9841.456377848142</v>
       </c>
       <c r="S16">
-        <v>0.02101021747438613</v>
+        <v>0.0198038284421183</v>
       </c>
       <c r="T16">
-        <v>0.02101021747438613</v>
+        <v>0.0198038284421183</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>122.909391</v>
+        <v>94.34696966666667</v>
       </c>
       <c r="H17">
-        <v>368.728173</v>
+        <v>283.040909</v>
       </c>
       <c r="I17">
-        <v>0.4861499128584522</v>
+        <v>0.524429948940542</v>
       </c>
       <c r="J17">
-        <v>0.4861499128584522</v>
+        <v>0.5244299489405421</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.940565666666667</v>
+        <v>5.912082333333333</v>
       </c>
       <c r="N17">
-        <v>14.821697</v>
+        <v>17.736247</v>
       </c>
       <c r="O17">
-        <v>0.02394954586187395</v>
+        <v>0.01926252595751047</v>
       </c>
       <c r="P17">
-        <v>0.02394954586187395</v>
+        <v>0.01926252595751047</v>
       </c>
       <c r="Q17">
-        <v>607.241917285509</v>
+        <v>557.7870525698359</v>
       </c>
       <c r="R17">
-        <v>5465.177255569581</v>
+        <v>5020.083473128522</v>
       </c>
       <c r="S17">
-        <v>0.01164306963374952</v>
+        <v>0.01010184550436308</v>
       </c>
       <c r="T17">
-        <v>0.01164306963374952</v>
+        <v>0.01010184550436308</v>
       </c>
     </row>
   </sheetData>
